--- a/out/test/deps/dependence8x4.xlsx
+++ b/out/test/deps/dependence8x4.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Graph" sheetId="2" relationships:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -153,6 +154,515 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="false"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="false"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr altLang="en-US" b="false" baseline="0" i="false" kern="0" lang="en-US" spc="0"/>
+              <a:t>Dependence between events</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="false"/>
+      <c:spPr/>
+      <c:txPr>
+        <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="14000" u="none"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="true"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$2:$E$2</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$3</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$3:$E$3</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$4</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$4:$E$4</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$5</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$5:$E$5</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$6</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$6:$E$6</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$7</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$7:$E$7</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$8</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$8:$E$8</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$9</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$9:$E$9</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$10</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$10:$E$10</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graph!$A$11</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graph!$B$1:$E$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph!$B$11:$E$11</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="false"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
+          <c:showLeaderLines val="false"/>
+        </c:dLbls>
+        <c:axId val="754001152"/>
+        <c:axId val="753999904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="754001152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="753999904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="true"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="false"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="753999904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754001152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="false"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="false"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.7"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" descr=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,7 +925,7 @@
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -457,37 +967,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
-        <v>[1 2 6 7 4 5 8]</v>
+        <v>[1 4 6 7 6 5]</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="str">
-        <v>4x3</v>
+        <v>4x2</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="5">
-        <v>10710</v>
+        <v>10689</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="str">
-        <v>[1 2 6 7 4 5]</v>
+        <v>[2 3 6 7 2 7 4 8]</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="str">
-        <v>4x2</v>
+        <v>4x4</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -497,52 +1007,52 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="str">
-        <v>[2 5 7 7 1 8]</v>
+        <v>[2 3 6 7 6 7]</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="str">
-        <v>3x3</v>
+        <v>4x2</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="5">
-        <v>10689</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="str">
-        <v>[3 8 8 5]</v>
+        <v>[2 3 8 2 8 1]</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="str">
-        <v>2x2</v>
+        <v>3x3</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="5">
-        <v>10295</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="str">
-        <v>[1 6]</v>
+        <v>[4 7 8 3]</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="str">
-        <v>1x1</v>
+        <v>3x1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -552,22 +1062,22 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="5">
-        <v>9299</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="str">
-        <v>[1 5 7 3]</v>
+        <v>[1 5 6 1 4]</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="str">
-        <v>3x1</v>
+        <v>3x2</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -577,27 +1087,27 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="str">
-        <v>[2 6 8 2 6]</v>
+        <v>[1 4 6 7 6 2 5 8]</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="str">
-        <v>3x2</v>
+        <v>4x4</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5">
-        <v>10295</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="str">
-        <v>[2 6 8 2 8 4]</v>
+        <v>[1 5 6 1 3 7]</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -607,27 +1117,27 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="5">
-        <v>10607</v>
+        <v>10689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="str">
-        <v>[3 7 6]</v>
+        <v>[1 5 6 1]</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="str">
-        <v>2x1</v>
+        <v>3x1</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -637,12 +1147,12 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="str">
-        <v>[2 5 7 8 8 4]</v>
+        <v>[1 7 1 2]</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="str">
-        <v>4x2</v>
+        <v>2x2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -652,12 +1162,12 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="5">
-        <v>10689</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="str">
-        <v>[2 5 7 8 2 3 4]</v>
+        <v>[1 4 6 7 4 3 5]</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -677,7 +1187,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="str">
-        <v>[2 5 7 8 5]</v>
+        <v>[1 4 6 7 1]</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -697,52 +1207,52 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="str">
-        <v>[1 2 5 8 1 8 6]</v>
+        <v>[7 8 1 2]</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="str">
-        <v>4x3</v>
+        <v>2x2</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="5">
-        <v>10689</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="str">
-        <v>[1 2 5 8 1 8 3 6]</v>
+        <v>[7 8 2]</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="str">
-        <v>4x4</v>
+        <v>2x1</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="5">
-        <v>10707</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="str">
-        <v>[1 5 7 2 8]</v>
+        <v>[4 7 8 3 5 6]</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="str">
-        <v>3x2</v>
+        <v>3x3</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -752,37 +1262,37 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="5">
-        <v>10689</v>
+        <v>10707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="str">
-        <v>[3 8 8]</v>
+        <v>[3 4 5 7 3 5 7]</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="str">
-        <v>2x1</v>
+        <v>4x3</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="5">
-        <v>9299</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="str">
-        <v>[1 2 6 7 8]</v>
+        <v>[4 7 8 1 2]</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="str">
-        <v>4x1</v>
+        <v>3x2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -797,32 +1307,32 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="str">
-        <v>[2 5 7 5 4]</v>
+        <v>[8 6]</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="str">
-        <v>3x2</v>
+        <v>1x1</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="5">
-        <v>10607</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="str">
-        <v>[2 5 7 2]</v>
+        <v>[1 7 1]</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="str">
-        <v>3x1</v>
+        <v>2x1</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -832,77 +1342,77 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="5">
-        <v>10295</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="str">
-        <v>[2 5 7 8 8 3 4 6]</v>
+        <v>[2 3 6 7 3 7 5]</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="str">
-        <v>4x4</v>
+        <v>4x3</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="5">
-        <v>10710</v>
+        <v>10689</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="str">
-        <v>[1 3 7 8 1 7 8 5]</v>
+        <v>[2 3 8 3 8]</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="str">
-        <v>4x4</v>
+        <v>3x2</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="5">
-        <v>10689</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="str">
-        <v>[1 3 7 8 1 3 7]</v>
+        <v>[2 5 6 8 1 3 4 7]</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="str">
-        <v>4x3</v>
+        <v>4x4</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="5">
-        <v>10607</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="str">
-        <v>[1 5 7 2 4 8]</v>
+        <v>[2 5 6 8 1 3]</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="str">
-        <v>3x3</v>
+        <v>4x2</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -913,6 +1423,66 @@
       <c r="I25" s="3"/>
       <c r="J25" s="5">
         <v>10707</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="str">
+        <v>[2 5 6 8 1 4 7]</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="str">
+        <v>4x3</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="str">
+        <v>[3 4 5 7 4 5 7 1]</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="str">
+        <v>4x4</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="5">
+        <v>10689</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="str">
+        <v>[2 5 6 8 7]</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="str">
+        <v>4x1</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="5">
+        <v>10689</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +1584,180 @@
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="true" max="1" min="1" style="0" width="0"/>
+    <col collapsed="false" customWidth="true" hidden="true" max="2" min="2" style="0" width="0"/>
+    <col collapsed="false" customWidth="true" hidden="true" max="3" min="3" style="0" width="0"/>
+    <col collapsed="false" customWidth="true" hidden="true" max="4" min="4" style="0" width="0"/>
+    <col collapsed="false" customWidth="true" hidden="true" max="5" min="5" style="0" width="0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>4x4</v>
+      </c>
+      <c r="B2">
+        <v>10710</v>
+      </c>
+      <c r="C2">
+        <v>10710</v>
+      </c>
+      <c r="D2">
+        <v>10707</v>
+      </c>
+      <c r="E2">
+        <v>10689</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>3x1</v>
+      </c>
+      <c r="B3">
+        <v>10607</v>
+      </c>
+      <c r="C3">
+        <v>10295</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3x2</v>
+      </c>
+      <c r="B4">
+        <v>10689</v>
+      </c>
+      <c r="C4">
+        <v>10607</v>
+      </c>
+      <c r="D4">
+        <v>10295</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2x2</v>
+      </c>
+      <c r="B5">
+        <v>10607</v>
+      </c>
+      <c r="C5">
+        <v>10295</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4x3</v>
+      </c>
+      <c r="B6">
+        <v>10710</v>
+      </c>
+      <c r="C6">
+        <v>10707</v>
+      </c>
+      <c r="D6">
+        <v>10689</v>
+      </c>
+      <c r="E6">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>4x1</v>
+      </c>
+      <c r="B7">
+        <v>10689</v>
+      </c>
+      <c r="C7">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>4x2</v>
+      </c>
+      <c r="B8">
+        <v>10707</v>
+      </c>
+      <c r="C8">
+        <v>10689</v>
+      </c>
+      <c r="D8">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>3x3</v>
+      </c>
+      <c r="B9">
+        <v>10707</v>
+      </c>
+      <c r="C9">
+        <v>10689</v>
+      </c>
+      <c r="D9">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2x1</v>
+      </c>
+      <c r="B10">
+        <v>10295</v>
+      </c>
+      <c r="C10">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>1x1</v>
+      </c>
+      <c r="B11">
+        <v>9299</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1"/>
+</worksheet>
 </file>